--- a/results/I3_N5_M2_T30_C100_DepCentral_s2_P1_res.xlsx
+++ b/results/I3_N5_M2_T30_C100_DepCentral_s2_P1_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1577.026473145671</v>
+        <v>2275.602186823345</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.006000041961669922</v>
+        <v>0.001999855041503906</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>22.84647314566407</v>
+        <v>22.10310020474523</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.791701159296143</v>
+        <v>17.29261454069673</v>
       </c>
     </row>
     <row r="8">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1339.890000000007</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>214.29</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -678,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -700,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -711,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -722,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -733,7 +733,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -744,7 +744,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -791,7 +791,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -802,7 +802,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -813,7 +813,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -835,7 +835,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -846,7 +846,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -907,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>21.7686718180601</v>
+        <v>13.37221626484706</v>
       </c>
     </row>
     <row r="4">
@@ -915,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>22.43350262360388</v>
+        <v>11.29375422704624</v>
       </c>
     </row>
     <row r="5">
@@ -923,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>10</v>
+        <v>25.17182228993174</v>
       </c>
     </row>
     <row r="6">
@@ -931,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>22.99312545677591</v>
+        <v>22.17869683315583</v>
       </c>
     </row>
     <row r="7">
@@ -947,7 +947,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>27.22520378290002</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
@@ -955,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>27.27636021569352</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -969,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1015,10 +1015,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1029,10 +1029,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -1043,10 +1043,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -1057,15 +1057,225 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
       </c>
       <c r="D6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>3</v>
+      </c>
+      <c r="B12" t="n">
+        <v>7</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>3</v>
+      </c>
+      <c r="B13" t="n">
+        <v>7</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>3</v>
+      </c>
+      <c r="B14" t="n">
+        <v>7</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>3</v>
+      </c>
+      <c r="B15" t="n">
+        <v>7</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>3</v>
+      </c>
+      <c r="B16" t="n">
+        <v>7</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>4</v>
+      </c>
+      <c r="B17" t="n">
+        <v>3</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>4</v>
+      </c>
+      <c r="B18" t="n">
+        <v>3</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>4</v>
+      </c>
+      <c r="B19" t="n">
+        <v>3</v>
+      </c>
+      <c r="C19" t="n">
+        <v>3</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>4</v>
+      </c>
+      <c r="B20" t="n">
+        <v>3</v>
+      </c>
+      <c r="C20" t="n">
+        <v>4</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>4</v>
+      </c>
+      <c r="B21" t="n">
+        <v>3</v>
+      </c>
+      <c r="C21" t="n">
+        <v>5</v>
+      </c>
+      <c r="D21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1168,7 +1378,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>84.83500000000059</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8">
@@ -1179,7 +1389,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>74.45</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9">
@@ -1190,7 +1400,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>75.68000000000059</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10">
@@ -1201,7 +1411,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>74.10500000000057</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11">
@@ -1212,7 +1422,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>80.46000000000058</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12">
@@ -1223,7 +1433,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>196.1</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13">
@@ -1234,7 +1444,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>190.0650000000012</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14">
@@ -1245,7 +1455,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>192.3650000000012</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15">
@@ -1256,7 +1466,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>190.9800000000012</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16">
@@ -1267,7 +1477,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>196.3800000000012</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17">
@@ -1278,7 +1488,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>32.91499999999935</v>
+        <v>300</v>
       </c>
     </row>
     <row r="18">
@@ -1289,7 +1499,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>33.31999999999935</v>
+        <v>322</v>
       </c>
     </row>
     <row r="19">
@@ -1300,7 +1510,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>26.77999999999935</v>
+        <v>296</v>
       </c>
     </row>
     <row r="20">
@@ -1311,7 +1521,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>36.18499999999935</v>
+        <v>306</v>
       </c>
     </row>
     <row r="21">
@@ -1322,7 +1532,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>35.9</v>
+        <v>294</v>
       </c>
     </row>
     <row r="22">
@@ -1333,7 +1543,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>139.0849999999997</v>
+        <v>235</v>
       </c>
     </row>
     <row r="23">
@@ -1344,7 +1554,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>145.8099999999997</v>
+        <v>256</v>
       </c>
     </row>
     <row r="24">
@@ -1355,7 +1565,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>129.35</v>
+        <v>229</v>
       </c>
     </row>
     <row r="25">
@@ -1366,7 +1576,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>146.2349999999997</v>
+        <v>239</v>
       </c>
     </row>
     <row r="26">
@@ -1377,7 +1587,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>143.5749999999997</v>
+        <v>231</v>
       </c>
     </row>
     <row r="27">
@@ -1388,7 +1598,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>41.18000000000073</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28">
@@ -1399,7 +1609,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>37.41500000000073</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29">
@@ -1410,7 +1620,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>34.38500000000073</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30">
@@ -1421,7 +1631,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>34.59500000000072</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31">
@@ -1432,7 +1642,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>36.59000000000073</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32">
@@ -1443,7 +1653,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>196.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1454,7 +1664,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>190.0650000000012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1465,7 +1675,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>192.3650000000012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1476,7 +1686,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>190.9800000000012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1487,7 +1697,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>196.3800000000012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1498,7 +1708,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>139.0849999999997</v>
+        <v>300</v>
       </c>
     </row>
     <row r="38">
@@ -1509,7 +1719,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>145.8099999999997</v>
+        <v>322</v>
       </c>
     </row>
     <row r="39">
@@ -1520,7 +1730,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>129.35</v>
+        <v>296</v>
       </c>
     </row>
     <row r="40">
@@ -1531,7 +1741,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>146.2349999999997</v>
+        <v>306</v>
       </c>
     </row>
     <row r="41">
@@ -1542,7 +1752,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>143.5749999999997</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -1589,7 +1799,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>96.09999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1600,7 +1810,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>90.06500000000116</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1611,7 +1821,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>92.36500000000117</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1622,7 +1832,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>90.98000000000118</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1633,7 +1843,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>96.38000000000116</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1644,7 +1854,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>39.08499999999972</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8">
@@ -1655,7 +1865,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>45.80999999999969</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9">
@@ -1666,7 +1876,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>29.35</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10">
@@ -1677,7 +1887,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>46.23499999999973</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11">
@@ -1688,7 +1898,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>43.5749999999997</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -1735,7 +1945,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1746,7 +1956,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1757,7 +1967,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1768,7 +1978,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1779,7 +1989,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1790,7 +2000,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -1801,7 +2011,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1812,7 +2022,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -1823,7 +2033,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1834,7 +2044,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -1845,7 +2055,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>8.255000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1856,7 +2066,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>13.395</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1867,7 +2077,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>11.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1878,7 +2088,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>11.465</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1889,7 +2099,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>9.42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1955,7 +2165,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>11.055</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -1966,7 +2176,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>6.935</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
@@ -1977,7 +2187,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>10.14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
@@ -1988,7 +2198,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>11.19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -1999,7 +2209,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>14.21</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2013,7 +2223,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2040,7 +2250,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2051,7 +2261,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2062,7 +2272,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2073,7 +2283,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2084,7 +2294,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -2095,7 +2305,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -2106,7 +2316,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
@@ -2117,7 +2327,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
@@ -2128,7 +2338,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B10" t="n">
         <v>4</v>
@@ -2139,12 +2349,122 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B11" t="n">
         <v>5</v>
       </c>
       <c r="C11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>3</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>3</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>3</v>
+      </c>
+      <c r="B14" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>3</v>
+      </c>
+      <c r="B15" t="n">
+        <v>4</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>3</v>
+      </c>
+      <c r="B16" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>4</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>4</v>
+      </c>
+      <c r="B18" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>4</v>
+      </c>
+      <c r="B19" t="n">
+        <v>3</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>4</v>
+      </c>
+      <c r="B20" t="n">
+        <v>4</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>4</v>
+      </c>
+      <c r="B21" t="n">
+        <v>5</v>
+      </c>
+      <c r="C21" t="n">
         <v>1</v>
       </c>
     </row>
